--- a/resources/WORKPLAN.xlsx
+++ b/resources/WORKPLAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhenv\Documents\BootCamp_FInal_Project\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhenv\Documents\Final_Project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F03D3-CBE8-4B0F-B9EA-128D4ACAA22F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC58C3-72DA-41EC-AA85-4219DA654217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88878C3A-E0F8-49B9-AA01-F2A04453C4E5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88878C3A-E0F8-49B9-AA01-F2A04453C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Big Picture" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
   <si>
     <t>Copyright © 2019 by Climate Analytics and New Climate Institute. All rights reserved. The content provided by this website is protected by copyright. You are authorised to view, download, print and distribute the copyrighted content from this website subject to the following condition: Any reproduction, in full or in part, must credit Climate Analytics and NewClimate Institute and must include a copyright notice and must not be used for commercial purposes. If you would like to use our material for commercial purposes, please contact us.</t>
   </si>
@@ -136,6 +138,646 @@
   <si>
     <t>06.
 Maintenance</t>
+  </si>
+  <si>
+    <t>see tab 2</t>
+  </si>
+  <si>
+    <t>Drawing from the information gathered up to this point, we determine the look and feel of the site.</t>
+  </si>
+  <si>
+    <t>This is where the functional web site itself is created.</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Python - data clean up and file conversion</t>
+  </si>
+  <si>
+    <t>PG-Admin SGL - DB tables and connectivity with app.js</t>
+  </si>
+  <si>
+    <t>Desktop view
+Mobile View
+Responsive view</t>
+  </si>
+  <si>
+    <t>Governance, Documentation and training to staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual graphic elements defined from the preliminary design
+Create the functional web site 
+Establish the look and feel of the site. </t>
+  </si>
+  <si>
+    <t>FEATURES</t>
+  </si>
+  <si>
+    <t>WEBSCRAPPING GOOGLE</t>
+  </si>
+  <si>
+    <t>Interactive Map</t>
+  </si>
+  <si>
+    <t>app.py</t>
+  </si>
+  <si>
+    <t>DATA Sources</t>
+  </si>
+  <si>
+    <t>CREATE Repository</t>
+  </si>
+  <si>
+    <t>CREATE Workplan</t>
+  </si>
+  <si>
+    <t>Migrate database to local database</t>
+  </si>
+  <si>
+    <t>Create a local postgres</t>
+  </si>
+  <si>
+    <t>Create a table for policies Github - done</t>
+  </si>
+  <si>
+    <t>Move the current working code to master branch of new repository</t>
+  </si>
+  <si>
+    <t>Create a dev branch from master branch</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>Testing and trouble shooting</t>
+  </si>
+  <si>
+    <t>Create a feature branch from dev branch How are we doing globally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a page for policies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content should fit the table column cell Videos page: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a table to store links of basic videos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create an API to get the links of basic videos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate videos API with videos page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate with YouTube API to get latest videos on Climate Change from Ted Talk, Climate Leadership, and National Geographic channel Policies page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a policy table - Migrate policy data into the policy table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an Indicator drop down </t>
+  </si>
+  <si>
+    <t>Create - Create a policy API to Get policies from table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round the numbers to 4 decimal places Current Articles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a drop down to show list of countries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the list of latest articles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show x number of characters from each article </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a read more link to take the user to the article </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show indicators based on the selected sector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a drop down for sectors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years - Indicators - On the right side, show a world map with dots. On hovering over the dot, you would see a toolbar: Indicator name, unit, and CO2 emission value Results by country page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the selected sector, populate nested drop downs </t>
+  </si>
+  <si>
+    <t>Create a country drop down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a sector drop down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOTNOTE: More information on the Carbon Transparency Initiative and how the scenarios are generated can be found on their website - https://cti.climateworks.org/. 
+</t>
+  </si>
+  <si>
+    <t>D3 Visualization</t>
+  </si>
+  <si>
+    <t>use tableu to create graphics and tables</t>
+  </si>
+  <si>
+    <t>html, body</t>
+  </si>
+  <si>
+    <t>.navbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.navbar-brand </t>
+  </si>
+  <si>
+    <t>.navbar-toggler</t>
+  </si>
+  <si>
+    <t>.hero-image</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>.pagecontainer</t>
+  </si>
+  <si>
+    <t>.pic_size</t>
+  </si>
+  <si>
+    <t>.visuals</t>
+  </si>
+  <si>
+    <t>.textpadding</t>
+  </si>
+  <si>
+    <t>.visuals article</t>
+  </si>
+  <si>
+    <t>#fieldworld</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>@media</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>tbody tr:nth-child</t>
+  </si>
+  <si>
+    <t>tbody tr:hover</t>
+  </si>
+  <si>
+    <t>.fixed</t>
+  </si>
+  <si>
+    <t>.scrollMore</t>
+  </si>
+  <si>
+    <t>.up -- cursor pointer</t>
+  </si>
+  <si>
+    <t>td:nth-child</t>
+  </si>
+  <si>
+    <t>Tshoot</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>UPDATE DB SERVER CONNECTION ON ALL PAGES AND TROUBLESHOOT</t>
+  </si>
+  <si>
+    <t>Twitter feed</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>4pm</t>
+  </si>
+  <si>
+    <t>matched format and feel to policy</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>rerun data to html from server</t>
+  </si>
+  <si>
+    <t>climate governance</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>added background picture, license with adobe</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/canada/indicators</t>
+  </si>
+  <si>
+    <t>Website sources, and API's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page - Show the drop down for sectors </t>
+  </si>
+  <si>
+    <t>fix navigate drop down on each page to match home page</t>
+  </si>
+  <si>
+    <t>&lt;th&gt;Argentina &lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Australia&lt;/th&gt;&lt;td&gt;1450 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Brazil&lt;/th&gt;&lt;td&gt;2020 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Canada&lt;/th&gt;&lt;td&gt;1740 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;China&lt;/th&gt;&lt;td&gt;14200 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;France&lt;/th&gt;&lt;td&gt;2890 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Germany&lt;/th&gt;&lt;td&gt;4040 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;India&lt;/th&gt;&lt;td&gt;2800 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Indonesia&lt;/th&gt;&lt;td&gt;1126 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Italy&lt;/th&gt;&lt;td&gt;2030 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Japan&lt;/th&gt;&lt;td&gt;5110 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Republic of Korea&lt;/th&gt;&lt;td&gt;1690 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Mexico&lt;/th&gt;&lt;td&gt;1200 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Russia&lt;/th&gt;&lt;td&gt;1750 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Saudi Arabia&lt;/th&gt;&lt;td&gt;785 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;South Africa&lt;/th&gt;&lt;td&gt;350 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;Turkey&lt;/th&gt;&lt;td&gt;740 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;United Kingdom&lt;/th&gt;&lt;td&gt;2910 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;United States&lt;/th&gt;&lt;td&gt;21200 USD Billion GDP &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;th&gt;European Union&lt;/th&gt;&lt;td&gt;14000 USD Billion GDP &lt;/td</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SM.POP.TOTL?end=2018&amp;start=1960&amp;view=map&amp;year=1989</t>
+  </si>
+  <si>
+    <t>population data</t>
+  </si>
+  <si>
+    <t>https://climateknowledgeportal.worldbank.org/region/north-america/climate-data-historical</t>
+  </si>
+  <si>
+    <t>country data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ARG.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bra_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_BRA.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CAN.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chn_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CHN.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deu_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_DEU.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_FR.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grb_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_GBR.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idn_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IDN.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IND.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ita_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ITA.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpn_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_JPN.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kor_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_KOR.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mex_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_MEX.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rus_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_RUS.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_SAU.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tur_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_TUR.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_USA.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zaf_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ZAF.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_data ,bra_data ,can_data ,chn_data ,deu_data ,fra_data ,grb_data ,idn_data ,ind_data ,ita_data ,jpn_data ,kor_data ,mex_data ,rus_data ,sau_data ,tur_data ,usa_data ,zaf_data </t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>https://redstapler.co/javascript-realtime-chart-plotly/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2tL261mqqFI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOOLS: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goals:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Create awareness</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Monitor Policy and Compliance</t>
+    </r>
+  </si>
+  <si>
+    <t>assume there are multiple data sources</t>
+  </si>
+  <si>
+    <t>Clean up previous coding, Testing console log, trouble shooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEKA for ML, and testing different algorithms </t>
   </si>
   <si>
     <r>
@@ -154,651 +796,32 @@
         <rFont val="Roboto"/>
       </rPr>
       <t xml:space="preserve">
-What is the purpose of the site? Do you want to provide information, promote a service, sell a product, etc.?
-Report and update the public on G-20 commitments and curent status on enviromental policy compliance</t>
+Report and update the public on G-20 commitments and current status on environmental policy compliance</t>
     </r>
   </si>
   <si>
-    <t>Goals</t>
-  </si>
-  <si>
-    <t>Target Audience</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>see tab 2</t>
-  </si>
-  <si>
-    <t>Drawing from the information gathered up to this point, we determine the look and feel of the site.</t>
-  </si>
-  <si>
-    <t>Target audience</t>
-  </si>
-  <si>
-    <t>This is where the functional web site itself is created.</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Python - data clean up and file conversion</t>
-  </si>
-  <si>
-    <t>PG-Admin SGL - DB tables and connectivity with app.js</t>
-  </si>
-  <si>
-    <t>Tableu for graphics to be set as background and as part of some pages</t>
-  </si>
-  <si>
-    <t>User interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easiness of </t>
-  </si>
-  <si>
-    <t>Desktop view
-Mobile View
-Responsive view</t>
-  </si>
-  <si>
-    <t>Testing console log, trouble shooting</t>
-  </si>
-  <si>
-    <t>Governance, Documentation and training to staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual graphic elements defined from the preliminary design
-Create the functional web site 
-Establish the look and feel of the site. </t>
-  </si>
-  <si>
-    <t>iterations</t>
-  </si>
-  <si>
-    <t>budget hrs/employee</t>
-  </si>
-  <si>
-    <t>governance</t>
-  </si>
-  <si>
-    <t>stakeholders</t>
-  </si>
-  <si>
-    <t>policy updates</t>
-  </si>
-  <si>
-    <t>FEATURES</t>
-  </si>
-  <si>
-    <t>WEBSCRAPPING GOOGLE</t>
-  </si>
-  <si>
-    <t>Interactive Map</t>
-  </si>
-  <si>
-    <t>app.py</t>
-  </si>
-  <si>
-    <t>DATA Sources</t>
-  </si>
-  <si>
-    <t>CREATE Repository</t>
-  </si>
-  <si>
-    <t>CREATE Workplan</t>
-  </si>
-  <si>
-    <t>Migrate database to local database</t>
-  </si>
-  <si>
-    <t>Create a local postgres</t>
-  </si>
-  <si>
-    <t>Create a table for policies Github - done</t>
-  </si>
-  <si>
-    <t>Move the current working code to master branch of new repository</t>
-  </si>
-  <si>
-    <t>Create a dev branch from master branch</t>
-  </si>
-  <si>
-    <t>DATABASE</t>
-  </si>
-  <si>
-    <t>Testing and trouble shooting</t>
-  </si>
-  <si>
-    <t>Create a feature branch from dev branch How are we doing globally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a page for policies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content should fit the table column cell Videos page: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a table to store links of basic videos </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create an API to get the links of basic videos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate videos API with videos page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate with YouTube API to get latest videos on Climate Change from Ted Talk, Climate Leadership, and National Geographic channel Policies page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a policy table - Migrate policy data into the policy table </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create an Indicator drop down </t>
-  </si>
-  <si>
-    <t>Create - Create a policy API to Get policies from table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round the numbers to 4 decimal places Current Articles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a drop down to show list of countries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get the list of latest articles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show x number of characters from each article </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a read more link to take the user to the article </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show indicators based on the selected sector </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a drop down for sectors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years - Indicators - On the right side, show a world map with dots. On hovering over the dot, you would see a toolbar: Indicator name, unit, and CO2 emission value Results by country page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on the selected sector, populate nested drop downs </t>
-  </si>
-  <si>
-    <t>Create a country drop down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a sector drop down </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOOTNOTE: More information on the Carbon Transparency Initiative and how the scenarios are generated can be found on their website - https://cti.climateworks.org/. 
+    <t xml:space="preserve">Target audience
+User Interacivity
 </t>
   </si>
   <si>
-    <t>D3 Visualization</t>
-  </si>
-  <si>
-    <t>use tableu to create graphics and tables</t>
-  </si>
-  <si>
-    <t>html, body</t>
-  </si>
-  <si>
-    <t>.navbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.navbar-brand </t>
-  </si>
-  <si>
-    <t>.navbar-toggler</t>
-  </si>
-  <si>
-    <t>.hero-image</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>.pagecontainer</t>
-  </si>
-  <si>
-    <t>.pic_size</t>
-  </si>
-  <si>
-    <t>.visuals</t>
-  </si>
-  <si>
-    <t>.textpadding</t>
-  </si>
-  <si>
-    <t>.visuals article</t>
-  </si>
-  <si>
-    <t>#fieldworld</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>@media</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>caption</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>tbody tr:nth-child</t>
-  </si>
-  <si>
-    <t>tbody tr:hover</t>
-  </si>
-  <si>
-    <t>.fixed</t>
-  </si>
-  <si>
-    <t>.scrollMore</t>
-  </si>
-  <si>
-    <t>.up -- cursor pointer</t>
-  </si>
-  <si>
-    <t>td:nth-child</t>
-  </si>
-  <si>
-    <t>Tshoot</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>UPDATE DB SERVER CONNECTION ON ALL PAGES AND TROUBLESHOOT</t>
-  </si>
-  <si>
-    <t>Twitter feed</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>4pm</t>
-  </si>
-  <si>
-    <t>matched format and feel to policy</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>rerun data to html from server</t>
-  </si>
-  <si>
-    <t>climate governance</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>added background picture, license with adobe</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/canada/indicators</t>
-  </si>
-  <si>
-    <t>Website sources, and API's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page - Show the drop down for sectors </t>
-  </si>
-  <si>
-    <t>fix navigate drop down on each page to match home page</t>
-  </si>
-  <si>
-    <t>&lt;th&gt;Argentina &lt;/th&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Australia&lt;/th&gt;&lt;td&gt;1450 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Brazil&lt;/th&gt;&lt;td&gt;2020 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Canada&lt;/th&gt;&lt;td&gt;1740 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;China&lt;/th&gt;&lt;td&gt;14200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;France&lt;/th&gt;&lt;td&gt;2890 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Germany&lt;/th&gt;&lt;td&gt;4040 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;India&lt;/th&gt;&lt;td&gt;2800 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Indonesia&lt;/th&gt;&lt;td&gt;1126 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Italy&lt;/th&gt;&lt;td&gt;2030 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Japan&lt;/th&gt;&lt;td&gt;5110 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Republic of Korea&lt;/th&gt;&lt;td&gt;1690 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Mexico&lt;/th&gt;&lt;td&gt;1200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Russia&lt;/th&gt;&lt;td&gt;1750 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Saudi Arabia&lt;/th&gt;&lt;td&gt;785 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;South Africa&lt;/th&gt;&lt;td&gt;350 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Turkey&lt;/th&gt;&lt;td&gt;740 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;United Kingdom&lt;/th&gt;&lt;td&gt;2910 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;United States&lt;/th&gt;&lt;td&gt;21200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;European Union&lt;/th&gt;&lt;td&gt;14000 USD Billion GDP &lt;/td</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/indicator/SM.POP.TOTL?end=2018&amp;start=1960&amp;view=map&amp;year=1989</t>
-  </si>
-  <si>
-    <t>population data</t>
-  </si>
-  <si>
-    <t>https://climateknowledgeportal.worldbank.org/region/north-america/climate-data-historical</t>
-  </si>
-  <si>
-    <t>country data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ARG.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bra_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_BRA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CAN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CHN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deu_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_DEU.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_FR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grb_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_GBR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IDN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IND.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ita_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ITA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jpn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_JPN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kor_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_KOR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mex_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_MEX.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rus_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_RUS.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sau_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_SAU.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tur_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_TUR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_USA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaf_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ZAF.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_data ,bra_data ,can_data ,chn_data ,deu_data ,fra_data ,grb_data ,idn_data ,ind_data ,ita_data ,jpn_data ,kor_data ,mex_data ,rus_data ,sau_data ,tur_data ,usa_data ,zaf_data </t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>https://redstapler.co/javascript-realtime-chart-plotly/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2tL261mqqFI&amp;feature=youtu.be</t>
+    <t>Sources of information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau for graphics </t>
+  </si>
+  <si>
+    <t>OpenRefine/Pandas for data clean up</t>
+  </si>
+  <si>
+    <t>Use graphs from DB source data, csv data, plotly, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -901,6 +924,12 @@
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -976,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1119,12 +1148,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1221,23 +1283,59 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1245,71 +1343,75 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1626,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A93E0DE-768A-4DE8-B471-1416FE014314}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1637,11 +1739,11 @@
     <col min="1" max="1" width="18.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="2.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="10" customWidth="1"/>
     <col min="6" max="6" width="2.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="10" customWidth="1"/>
     <col min="9" max="9" width="1.625" style="10" customWidth="1"/>
     <col min="10" max="10" width="9" style="10" customWidth="1"/>
     <col min="11" max="11" width="15.375" style="10" customWidth="1"/>
@@ -1655,206 +1757,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="E1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="J1" s="42" t="s">
+      <c r="H1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="P1" s="42" t="s">
+      <c r="N1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="42"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="72"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="75"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="75"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
+    </row>
+    <row r="4" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="80"/>
+    </row>
+    <row r="5" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="78"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="72"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="72"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+    </row>
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="G2" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="J2" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="M2" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="41"/>
-      <c r="P2" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="D3" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="G3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="J3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="M3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="41"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
-    </row>
-    <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="D4" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="G4" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="J4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="M4" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="41"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-    </row>
-    <row r="5" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="D5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="G5" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="J5" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="41"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="D6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="41"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-    </row>
-    <row r="7" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="D7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-    </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="72"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="72"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="N8" s="72"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="D9" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
+      <c r="D10" s="81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="81" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="45">
+    <mergeCell ref="J4:Q4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1867,7 +1998,45 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{CC1FFF5B-4C81-4A65-82CE-1D95C2240F34}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{E2A1ECA7-1467-49C5-80C0-55698F5A6040}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{BF7D83FB-1B53-47E6-A5F3-35CF1F6ABC21}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{71B1D2F3-364A-41FA-B96D-3C72119331E9}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{FDBC59B0-CA19-4BC7-8A1F-3407CD13B5DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1876,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFDB17-C15C-46B8-A405-779259BD4ABF}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A101" sqref="A89:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1911,91 +2080,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
+      <c r="E2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="24"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="H3" s="63" t="s">
+      <c r="F3" s="42"/>
+      <c r="H3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="K3" s="63" t="s">
+      <c r="I3" s="42"/>
+      <c r="K3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="N3" s="63" t="s">
+      <c r="L3" s="42"/>
+      <c r="N3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="Q3" s="63" t="s">
+      <c r="O3" s="42"/>
+      <c r="Q3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="T3" s="63" t="s">
+      <c r="R3" s="42"/>
+      <c r="T3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="64"/>
-      <c r="W3" s="63" t="s">
+      <c r="U3" s="42"/>
+      <c r="W3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="64"/>
+      <c r="X3" s="42"/>
     </row>
     <row r="4" spans="1:24" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -2005,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -2063,39 +2232,39 @@
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="19" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="22" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="3"/>
       <c r="K5" s="23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>128</v>
+      <c r="N5" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="R5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="W5" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="X5" s="57" t="s">
+      <c r="W5" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="54" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2107,105 +2276,105 @@
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="51"/>
+      <c r="E6" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="49"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="57"/>
+      <c r="H6" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="54"/>
       <c r="J6" s="3"/>
       <c r="K6" s="19" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="68"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="T6" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="U6" s="51"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="58"/>
+      <c r="T6" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="49"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="55"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="3"/>
       <c r="K7" s="19"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="51"/>
+      <c r="N7" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="49"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="R7" s="2"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="50"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="51"/>
+      <c r="E8" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="49"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="48"/>
+      <c r="H8" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="51"/>
       <c r="J8" s="3"/>
       <c r="K8" s="19"/>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="52"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="R8" s="2"/>
       <c r="T8" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="U8" s="2"/>
       <c r="W8" s="2"/>
@@ -2213,20 +2382,20 @@
     </row>
     <row r="9" spans="1:24" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="52"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="3"/>
       <c r="K9" s="19"/>
       <c r="L9" s="2"/>
@@ -2234,12 +2403,12 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="51"/>
+      <c r="Q9" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="49"/>
       <c r="T9" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U9" s="2"/>
       <c r="W9" s="2"/>
@@ -2247,24 +2416,24 @@
     </row>
     <row r="10" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="19" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="59"/>
+      <c r="H10" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="45"/>
       <c r="J10" s="3"/>
       <c r="K10" s="19"/>
       <c r="L10" s="2"/>
@@ -2272,8 +2441,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="69"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="53"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="W10" s="2"/>
@@ -2281,20 +2450,20 @@
     </row>
     <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="51"/>
+      <c r="E11" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="49"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="3"/>
       <c r="K11" s="19"/>
       <c r="L11" s="2"/>
@@ -2302,8 +2471,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="50"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="W11" s="2"/>
@@ -2314,13 +2483,13 @@
       <c r="B12" s="2"/>
       <c r="C12" s="13"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="48"/>
+      <c r="H12" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="51"/>
       <c r="J12" s="3"/>
       <c r="K12" s="19"/>
       <c r="L12" s="2"/>
@@ -2341,12 +2510,12 @@
       <c r="C13" s="13"/>
       <c r="D13" s="3"/>
       <c r="E13" s="19" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="3"/>
       <c r="K13" s="19"/>
       <c r="L13" s="2"/>
@@ -2363,7 +2532,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="13"/>
@@ -2371,10 +2540,10 @@
       <c r="E14" s="19"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="51"/>
+      <c r="H14" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="49"/>
       <c r="J14" s="3"/>
       <c r="K14" s="28"/>
       <c r="L14" s="27"/>
@@ -2397,8 +2566,8 @@
       <c r="E15" s="19"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="3"/>
       <c r="K15" s="19"/>
       <c r="L15" s="2"/>
@@ -2487,13 +2656,13 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="25"/>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -2515,17 +2684,17 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -2547,13 +2716,13 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="19"/>
@@ -2577,13 +2746,13 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="19"/>
@@ -2607,7 +2776,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="13"/>
@@ -2755,13 +2924,13 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="19"/>
@@ -2785,7 +2954,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -2813,7 +2982,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -2841,7 +3010,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
@@ -2850,55 +3019,55 @@
       <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="13"/>
-      <c r="E33" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
+      <c r="E33" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -2917,13 +3086,13 @@
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
       <c r="E37" s="9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -2937,7 +3106,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -2956,13 +3125,13 @@
       <c r="B41" s="2"/>
       <c r="C41" s="13"/>
       <c r="E41" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -2974,189 +3143,189 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
@@ -3198,7 +3367,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="25"/>
@@ -3235,7 +3404,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="25"/>
@@ -3262,37 +3431,58 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E33:X33"/>
     <mergeCell ref="E34:X34"/>
@@ -3309,27 +3499,6 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" sqref="B5" xr:uid="{1036C418-DF9F-4A40-960D-9C6B7EB3DD23}">
@@ -3367,146 +3536,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +3686,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3541,102 +3710,102 @@
   <sheetData>
     <row r="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1" s="37" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="37" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="37" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="37" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="37" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="37" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="37" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="37" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="37" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="37" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="37" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="37" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="37" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="37" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="37" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="37" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="37" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="37" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3657,21 +3826,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B2" s="39">
         <v>-38.416097000000001</v>
@@ -3680,12 +3849,12 @@
         <v>-63.616672000000001</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B3" s="39">
         <v>-25.274398000000001</v>
@@ -3694,12 +3863,12 @@
         <v>133.775136</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B4" s="39">
         <v>-14.235004</v>
@@ -3708,12 +3877,12 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B5" s="39">
         <v>56.130366000000002</v>
@@ -3722,12 +3891,12 @@
         <v>-106.346771</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B6" s="39">
         <v>35.861660000000001</v>
@@ -3736,12 +3905,12 @@
         <v>104.195397</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B7" s="39">
         <v>51.165691000000002</v>
@@ -3750,12 +3919,12 @@
         <v>10.451525999999999</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B8" s="39">
         <v>46.227637999999999</v>
@@ -3764,12 +3933,12 @@
         <v>2.213749</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B9" s="39">
         <v>55.378050999999999</v>
@@ -3778,12 +3947,12 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B10" s="39">
         <v>-0.78927499999999995</v>
@@ -3792,12 +3961,12 @@
         <v>113.92132700000001</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B11" s="39">
         <v>20.593684</v>
@@ -3806,12 +3975,12 @@
         <v>78.962879999999998</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B12" s="39">
         <v>41.871940000000002</v>
@@ -3820,12 +3989,12 @@
         <v>12.56738</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B13" s="39">
         <v>36.204824000000002</v>
@@ -3834,12 +4003,12 @@
         <v>138.25292400000001</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B14" s="39">
         <v>35.907756999999997</v>
@@ -3848,12 +4017,12 @@
         <v>127.76692199999999</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B15" s="39">
         <v>23.634501</v>
@@ -3862,12 +4031,12 @@
         <v>-102.552784</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B16" s="39">
         <v>61.524009999999997</v>
@@ -3876,12 +4045,12 @@
         <v>105.31875599999999</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B17" s="39">
         <v>23.885942</v>
@@ -3890,12 +4059,12 @@
         <v>45.079161999999997</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B18" s="39">
         <v>38.963745000000003</v>
@@ -3904,12 +4073,12 @@
         <v>35.243321999999999</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B19" s="39">
         <v>37.090240000000001</v>
@@ -3918,12 +4087,12 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B20" s="39">
         <v>-30.559481999999999</v>
@@ -3932,7 +4101,7 @@
         <v>22.937505999999999</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/resources/WORKPLAN.xlsx
+++ b/resources/WORKPLAN.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhenv\Documents\Final_Project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC58C3-72DA-41EC-AA85-4219DA654217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7327926-8F1E-4F92-9B10-6AA061B784A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88878C3A-E0F8-49B9-AA01-F2A04453C4E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88878C3A-E0F8-49B9-AA01-F2A04453C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Big Picture" sheetId="4" r:id="rId1"/>
     <sheet name="2. Workplan" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="coordinates" sheetId="7" r:id="rId5"/>
-    <sheet name="dropdown list" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="coordinates" sheetId="7" r:id="rId3"/>
+    <sheet name="dropdown list" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">coordinates!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">coordinates!$A$1:$D$20</definedName>
     <definedName name="STATUS">'dropdown list'!$A$4:$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="176">
   <si>
     <t>Copyright © 2019 by Climate Analytics and New Climate Institute. All rights reserved. The content provided by this website is protected by copyright. You are authorised to view, download, print and distribute the copyrighted content from this website subject to the following condition: Any reproduction, in full or in part, must credit Climate Analytics and NewClimate Institute and must include a copyright notice and must not be used for commercial purposes. If you would like to use our material for commercial purposes, please contact us.</t>
   </si>
@@ -243,25 +241,16 @@
     <t>Create - Create a policy API to Get policies from table</t>
   </si>
   <si>
-    <t xml:space="preserve">Round the numbers to 4 decimal places Current Articles </t>
-  </si>
-  <si>
     <t xml:space="preserve">Add a drop down to show list of countries </t>
   </si>
   <si>
     <t xml:space="preserve">Get the list of latest articles </t>
   </si>
   <si>
-    <t xml:space="preserve">Show x number of characters from each article </t>
-  </si>
-  <si>
     <t xml:space="preserve">Add a read more link to take the user to the article </t>
   </si>
   <si>
     <t xml:space="preserve">Show indicators based on the selected sector </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a drop down for sectors </t>
   </si>
   <si>
     <t xml:space="preserve">Years - Indicators - On the right side, show a world map with dots. On hovering over the dot, you would see a toolbar: Indicator name, unit, and CO2 emission value Results by country page </t>
@@ -376,24 +365,6 @@
     <t>UPDATE DB SERVER CONNECTION ON ALL PAGES AND TROUBLESHOOT</t>
   </si>
   <si>
-    <t>Twitter feed</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>4pm</t>
-  </si>
-  <si>
     <t>matched format and feel to policy</t>
   </si>
   <si>
@@ -403,9 +374,6 @@
     <t>rerun data to html from server</t>
   </si>
   <si>
-    <t>climate governance</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -478,66 +446,6 @@
     <t>fix navigate drop down on each page to match home page</t>
   </si>
   <si>
-    <t>&lt;th&gt;Argentina &lt;/th&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Australia&lt;/th&gt;&lt;td&gt;1450 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Brazil&lt;/th&gt;&lt;td&gt;2020 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Canada&lt;/th&gt;&lt;td&gt;1740 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;China&lt;/th&gt;&lt;td&gt;14200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;France&lt;/th&gt;&lt;td&gt;2890 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Germany&lt;/th&gt;&lt;td&gt;4040 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;India&lt;/th&gt;&lt;td&gt;2800 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Indonesia&lt;/th&gt;&lt;td&gt;1126 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Italy&lt;/th&gt;&lt;td&gt;2030 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Japan&lt;/th&gt;&lt;td&gt;5110 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Republic of Korea&lt;/th&gt;&lt;td&gt;1690 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Mexico&lt;/th&gt;&lt;td&gt;1200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Russia&lt;/th&gt;&lt;td&gt;1750 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Saudi Arabia&lt;/th&gt;&lt;td&gt;785 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;South Africa&lt;/th&gt;&lt;td&gt;350 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Turkey&lt;/th&gt;&lt;td&gt;740 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;United Kingdom&lt;/th&gt;&lt;td&gt;2910 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;United States&lt;/th&gt;&lt;td&gt;21200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;European Union&lt;/th&gt;&lt;td&gt;14000 USD Billion GDP &lt;/td</t>
-  </si>
-  <si>
     <t>https://data.worldbank.org/indicator/SM.POP.TOTL?end=2018&amp;start=1960&amp;view=map&amp;year=1989</t>
   </si>
   <si>
@@ -548,117 +456,6 @@
   </si>
   <si>
     <t>country data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ARG.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bra_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_BRA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CAN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CHN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deu_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_DEU.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_FR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grb_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_GBR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IDN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IND.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ita_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ITA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jpn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_JPN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kor_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_KOR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mex_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_MEX.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rus_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_RUS.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sau_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_SAU.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tur_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_TUR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_USA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaf_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ZAF.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_data ,bra_data ,can_data ,chn_data ,deu_data ,fra_data ,grb_data ,idn_data ,ind_data ,ita_data ,jpn_data ,kor_data ,mex_data ,rus_data ,sau_data ,tur_data ,usa_data ,zaf_data </t>
   </si>
   <si>
     <t>country</t>
@@ -816,12 +613,27 @@
   <si>
     <t>Use graphs from DB source data, csv data, plotly, etc.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Show x number of lines from each article </t>
+  </si>
+  <si>
+    <t>used d3 to graphic from csv</t>
+  </si>
+  <si>
+    <t>embed youtube video</t>
+  </si>
+  <si>
+    <t>data was not moved completely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create forecast </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -910,12 +722,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
@@ -931,7 +737,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,6 +807,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8EAED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1271,16 +1083,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,11 +1213,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,7 +1546,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1757,229 +1572,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="J1" s="40" t="s">
+      <c r="H1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="K1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="N1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="40"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="72"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="74" t="s">
+      <c r="A3" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="78"/>
     </row>
     <row r="5" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="77" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="70"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
       <c r="D9" s="10" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="D10" s="81" t="s">
-        <v>137</v>
+      <c r="D10" s="79" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="81" t="s">
-        <v>161</v>
+      <c r="D11" s="79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="81" t="s">
-        <v>163</v>
+      <c r="D12" s="79" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2043,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFDB17-C15C-46B8-A405-779259BD4ABF}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A101" sqref="A89:A101"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2056,10 +1871,10 @@
     <col min="3" max="3" width="10.375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="8" width="38.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -2073,98 +1888,98 @@
     <col min="20" max="20" width="31.25" style="1" customWidth="1"/>
     <col min="21" max="21" width="14.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="2.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="36.25" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
     <col min="25" max="25" width="3.875" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="24"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="H3" s="41" t="s">
+      <c r="F3" s="40"/>
+      <c r="H3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="I3" s="40"/>
+      <c r="K3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="N3" s="41" t="s">
+      <c r="L3" s="40"/>
+      <c r="N3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="Q3" s="41" t="s">
+      <c r="O3" s="40"/>
+      <c r="Q3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="T3" s="41" t="s">
+      <c r="R3" s="40"/>
+      <c r="T3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="W3" s="41" t="s">
+      <c r="U3" s="83"/>
+      <c r="W3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="42"/>
+      <c r="X3" s="83"/>
     </row>
     <row r="4" spans="1:24" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -2174,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -2232,25 +2047,31 @@
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>114</v>
+      <c r="N5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="2" t="s">
@@ -2260,12 +2081,14 @@
       <c r="T5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="W5" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="54" t="s">
-        <v>13</v>
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2276,37 +2099,41 @@
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="3"/>
       <c r="K6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="48"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="55"/>
+      <c r="U6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="50"/>
+      <c r="X6" s="53"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -2316,31 +2143,35 @@
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="3"/>
       <c r="K7" s="19"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="49"/>
+      <c r="N7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="47"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R7" s="2"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="50"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="48"/>
+      <c r="W7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2350,24 +2181,28 @@
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="51"/>
+      <c r="H8" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="19"/>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="50"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="16" t="s">
         <v>58</v>
@@ -2380,41 +2215,51 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="50"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="49"/>
+      <c r="R9" s="47"/>
       <c r="T9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>50</v>
       </c>
@@ -2422,18 +2267,18 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="45"/>
+      <c r="H10" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="19"/>
       <c r="L10" s="2"/>
@@ -2441,9 +2286,11 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="53"/>
-      <c r="T10" s="2"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="51"/>
+      <c r="T10" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2454,16 +2301,18 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="49"/>
+      <c r="E11" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="3"/>
       <c r="K11" s="19"/>
       <c r="L11" s="2"/>
@@ -2471,8 +2320,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="48"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="W11" s="2"/>
@@ -2483,13 +2332,15 @@
       <c r="B12" s="2"/>
       <c r="C12" s="13"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="50"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="51"/>
+      <c r="H12" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="19"/>
       <c r="L12" s="2"/>
@@ -2509,13 +2360,11 @@
       <c r="B13" s="2"/>
       <c r="C13" s="13"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="3"/>
       <c r="K13" s="19"/>
       <c r="L13" s="2"/>
@@ -2531,19 +2380,19 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="A14" s="19"/>
       <c r="B14" s="2"/>
       <c r="C14" s="13"/>
       <c r="D14" s="3"/>
       <c r="E14" s="19"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="49"/>
+      <c r="H14" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="28"/>
       <c r="L14" s="27"/>
@@ -2566,8 +2415,8 @@
       <c r="E15" s="19"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="3"/>
       <c r="K15" s="19"/>
       <c r="L15" s="2"/>
@@ -2690,13 +2539,15 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="19"/>
       <c r="I20" s="2"/>
@@ -2722,7 +2573,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="19"/>
@@ -2752,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="19"/>
@@ -2776,9 +2627,11 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="3"/>
       <c r="E23" s="19"/>
@@ -2930,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="19"/>
@@ -2982,7 +2835,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -3010,7 +2863,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
@@ -3019,55 +2872,55 @@
       <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="13"/>
-      <c r="E33" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
+      <c r="E33" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -3085,29 +2938,17 @@
       <c r="A37" s="19"/>
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
-      <c r="E37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="E37" s="9"/>
+      <c r="H37" s="32"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="13"/>
-      <c r="E38" s="31">
-        <v>44081</v>
-      </c>
-      <c r="H38" s="34">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="E38" s="31"/>
+      <c r="H38" s="34"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
@@ -3124,15 +2965,6 @@
       <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="13"/>
-      <c r="E41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
@@ -3143,189 +2975,189 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
@@ -3404,7 +3236,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="25"/>
@@ -3429,37 +3261,43 @@
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="A1:X1"/>
@@ -3521,300 +3359,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65EE1BE-D41B-45B5-B8DB-77E9FD83F2F7}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f>A1&amp;","&amp;A2&amp;","&amp;A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16&amp;","&amp;A17&amp;","&amp;A18</f>
-        <v xml:space="preserve">arg_data ,bra_data ,can_data ,chn_data ,deu_data ,fra_data ,grb_data ,idn_data ,ind_data ,ita_data ,jpn_data ,kor_data ,mex_data ,rus_data ,sau_data ,tur_data ,usa_data ,zaf_data </v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C63B2A-8747-4C41-8589-033B19BC456D}">
-  <dimension ref="C1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9" style="36"/>
-    <col min="5" max="5" width="66.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDC07EF-5764-49B8-9AC6-1C0DA4B8BAA0}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3825,283 +3369,283 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>205</v>
+      <c r="A1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="37">
         <v>-38.416097000000001</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="37">
         <v>-63.616672000000001</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>134</v>
+      <c r="D2" s="37" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="37">
         <v>-25.274398000000001</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="37">
         <v>133.775136</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>129</v>
+      <c r="D3" s="37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="A4" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="37">
         <v>-14.235004</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="37">
         <v>-51.925280000000001</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="37">
+        <v>56.130366000000002</v>
+      </c>
+      <c r="C5" s="37">
+        <v>-106.346771</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="37">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="C6" s="37">
+        <v>104.195397</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="37">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="C7" s="37">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="37">
+        <v>46.227637999999999</v>
+      </c>
+      <c r="C8" s="37">
+        <v>2.213749</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="37">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-3.4359730000000002</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="37">
+        <v>-0.78927499999999995</v>
+      </c>
+      <c r="C10" s="37">
+        <v>113.92132700000001</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="37">
+        <v>20.593684</v>
+      </c>
+      <c r="C11" s="37">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="37">
+        <v>41.871940000000002</v>
+      </c>
+      <c r="C12" s="37">
+        <v>12.56738</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="37">
+        <v>36.204824000000002</v>
+      </c>
+      <c r="C13" s="37">
+        <v>138.25292400000001</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="37">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="C14" s="37">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="37">
+        <v>23.634501</v>
+      </c>
+      <c r="C15" s="37">
+        <v>-102.552784</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="37">
+        <v>61.524009999999997</v>
+      </c>
+      <c r="C16" s="37">
+        <v>105.31875599999999</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="37">
+        <v>23.885942</v>
+      </c>
+      <c r="C17" s="37">
+        <v>45.079161999999997</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="37">
+        <v>38.963745000000003</v>
+      </c>
+      <c r="C18" s="37">
+        <v>35.243321999999999</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="37">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="C19" s="37">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="37">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="C20" s="37">
+        <v>22.937505999999999</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="39">
-        <v>56.130366000000002</v>
-      </c>
-      <c r="C5" s="39">
-        <v>-106.346771</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="39">
-        <v>35.861660000000001</v>
-      </c>
-      <c r="C6" s="39">
-        <v>104.195397</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="39">
-        <v>51.165691000000002</v>
-      </c>
-      <c r="C7" s="39">
-        <v>10.451525999999999</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="39">
-        <v>46.227637999999999</v>
-      </c>
-      <c r="C8" s="39">
-        <v>2.213749</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="39">
-        <v>55.378050999999999</v>
-      </c>
-      <c r="C9" s="39">
-        <v>-3.4359730000000002</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="39">
-        <v>-0.78927499999999995</v>
-      </c>
-      <c r="C10" s="39">
-        <v>113.92132700000001</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="39">
-        <v>20.593684</v>
-      </c>
-      <c r="C11" s="39">
-        <v>78.962879999999998</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="39">
-        <v>41.871940000000002</v>
-      </c>
-      <c r="C12" s="39">
-        <v>12.56738</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="39">
-        <v>36.204824000000002</v>
-      </c>
-      <c r="C13" s="39">
-        <v>138.25292400000001</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="39">
-        <v>35.907756999999997</v>
-      </c>
-      <c r="C14" s="39">
-        <v>127.76692199999999</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="39">
-        <v>23.634501</v>
-      </c>
-      <c r="C15" s="39">
-        <v>-102.552784</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="39">
-        <v>61.524009999999997</v>
-      </c>
-      <c r="C16" s="39">
-        <v>105.31875599999999</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="39">
-        <v>23.885942</v>
-      </c>
-      <c r="C17" s="39">
-        <v>45.079161999999997</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="39">
-        <v>38.963745000000003</v>
-      </c>
-      <c r="C18" s="39">
-        <v>35.243321999999999</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="39">
-        <v>37.090240000000001</v>
-      </c>
-      <c r="C19" s="39">
-        <v>-95.712890999999999</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="39">
-        <v>-30.559481999999999</v>
-      </c>
-      <c r="C20" s="39">
-        <v>22.937505999999999</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4111,7 +3655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E512953-2DD3-4B1F-B2EB-F75924513F32}">
   <dimension ref="A3:B7"/>
   <sheetViews>

--- a/resources/WORKPLAN.xlsx
+++ b/resources/WORKPLAN.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhenv\Documents\Final_Project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC58C3-72DA-41EC-AA85-4219DA654217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D378156C-883F-45B7-BB2E-D9C5F1518110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88878C3A-E0F8-49B9-AA01-F2A04453C4E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88878C3A-E0F8-49B9-AA01-F2A04453C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Big Picture" sheetId="4" r:id="rId1"/>
     <sheet name="2. Workplan" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="coordinates" sheetId="7" r:id="rId5"/>
-    <sheet name="dropdown list" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="coordinates" sheetId="7" r:id="rId3"/>
+    <sheet name="dropdown list" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">coordinates!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">coordinates!$A$1:$D$20</definedName>
     <definedName name="STATUS">'dropdown list'!$A$4:$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>Copyright © 2019 by Climate Analytics and New Climate Institute. All rights reserved. The content provided by this website is protected by copyright. You are authorised to view, download, print and distribute the copyrighted content from this website subject to the following condition: Any reproduction, in full or in part, must credit Climate Analytics and NewClimate Institute and must include a copyright notice and must not be used for commercial purposes. If you would like to use our material for commercial purposes, please contact us.</t>
   </si>
@@ -222,18 +220,6 @@
     <t xml:space="preserve">Content should fit the table column cell Videos page: </t>
   </si>
   <si>
-    <t xml:space="preserve">Create a table to store links of basic videos </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create an API to get the links of basic videos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate videos API with videos page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate with YouTube API to get latest videos on Climate Change from Ted Talk, Climate Leadership, and National Geographic channel Policies page </t>
-  </si>
-  <si>
     <t xml:space="preserve">Create a policy table - Migrate policy data into the policy table </t>
   </si>
   <si>
@@ -252,9 +238,6 @@
     <t xml:space="preserve">Get the list of latest articles </t>
   </si>
   <si>
-    <t xml:space="preserve">Show x number of characters from each article </t>
-  </si>
-  <si>
     <t xml:space="preserve">Add a read more link to take the user to the article </t>
   </si>
   <si>
@@ -268,12 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">Based on the selected sector, populate nested drop downs </t>
-  </si>
-  <si>
-    <t>Create a country drop down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a sector drop down </t>
   </si>
   <si>
     <t xml:space="preserve">FOOTNOTE: More information on the Carbon Transparency Initiative and how the scenarios are generated can be found on their website - https://cti.climateworks.org/. 
@@ -379,21 +356,6 @@
     <t>Twitter feed</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>4pm</t>
-  </si>
-  <si>
     <t>matched format and feel to policy</t>
   </si>
   <si>
@@ -478,66 +440,6 @@
     <t>fix navigate drop down on each page to match home page</t>
   </si>
   <si>
-    <t>&lt;th&gt;Argentina &lt;/th&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Australia&lt;/th&gt;&lt;td&gt;1450 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Brazil&lt;/th&gt;&lt;td&gt;2020 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Canada&lt;/th&gt;&lt;td&gt;1740 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;China&lt;/th&gt;&lt;td&gt;14200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;France&lt;/th&gt;&lt;td&gt;2890 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Germany&lt;/th&gt;&lt;td&gt;4040 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;India&lt;/th&gt;&lt;td&gt;2800 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Indonesia&lt;/th&gt;&lt;td&gt;1126 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Italy&lt;/th&gt;&lt;td&gt;2030 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Japan&lt;/th&gt;&lt;td&gt;5110 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Republic of Korea&lt;/th&gt;&lt;td&gt;1690 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Mexico&lt;/th&gt;&lt;td&gt;1200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Russia&lt;/th&gt;&lt;td&gt;1750 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Saudi Arabia&lt;/th&gt;&lt;td&gt;785 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;South Africa&lt;/th&gt;&lt;td&gt;350 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;Turkey&lt;/th&gt;&lt;td&gt;740 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;United Kingdom&lt;/th&gt;&lt;td&gt;2910 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;United States&lt;/th&gt;&lt;td&gt;21200 USD Billion GDP &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>                &lt;th&gt;European Union&lt;/th&gt;&lt;td&gt;14000 USD Billion GDP &lt;/td</t>
-  </si>
-  <si>
     <t>https://data.worldbank.org/indicator/SM.POP.TOTL?end=2018&amp;start=1960&amp;view=map&amp;year=1989</t>
   </si>
   <si>
@@ -548,117 +450,6 @@
   </si>
   <si>
     <t>country data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ARG.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bra_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_BRA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CAN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_CHN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deu_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_DEU.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_FR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grb_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_GBR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IDN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_IND.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ita_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ITA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jpn_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_JPN.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kor_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_KOR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mex_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_MEX.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rus_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_RUS.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sau_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_SAU.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tur_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_TUR.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_USA.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaf_data </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pd.read_csv(tas_1901_2016_ZAF.csv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_data ,bra_data ,can_data ,chn_data ,deu_data ,fra_data ,grb_data ,idn_data ,ind_data ,ita_data ,jpn_data ,kor_data ,mex_data ,rus_data ,sau_data ,tur_data ,usa_data ,zaf_data </t>
   </si>
   <si>
     <t>country</t>
@@ -816,12 +607,27 @@
   <si>
     <t>Use graphs from DB source data, csv data, plotly, etc.</t>
   </si>
+  <si>
+    <t>clean up code update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create countrydrop down </t>
+  </si>
+  <si>
+    <t>stats for linear regression and ML for each coutry indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show x number of lines from each article </t>
+  </si>
+  <si>
+    <t>clean up and embed properly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -907,12 +713,6 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1186,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1271,21 +1071,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,60 +1207,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1730,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A93E0DE-768A-4DE8-B471-1416FE014314}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1757,235 +1563,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="56"/>
+      <c r="D1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="J1" s="40" t="s">
+      <c r="H1" s="56"/>
+      <c r="J1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="K1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="N1" s="56"/>
+      <c r="P1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="40"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="72"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="74" t="s">
+      <c r="A3" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="80"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="77" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="43"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="45"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="N7" s="45"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="D9" s="10" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="D10" s="81" t="s">
-        <v>137</v>
+      <c r="D10" s="41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="81" t="s">
-        <v>161</v>
+      <c r="D11" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="81" t="s">
-        <v>163</v>
+      <c r="D12" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2009,7 +1813,7 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2019,6 +1823,8 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
@@ -2045,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFDB17-C15C-46B8-A405-779259BD4ABF}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A101" sqref="A89:A101"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2080,91 +1886,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="24"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="H3" s="41" t="s">
+      <c r="F3" s="59"/>
+      <c r="H3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="I3" s="59"/>
+      <c r="K3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="N3" s="41" t="s">
+      <c r="L3" s="59"/>
+      <c r="N3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="Q3" s="41" t="s">
+      <c r="O3" s="59"/>
+      <c r="Q3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="T3" s="41" t="s">
+      <c r="R3" s="59"/>
+      <c r="T3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="W3" s="41" t="s">
+      <c r="U3" s="59"/>
+      <c r="W3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="42"/>
+      <c r="X3" s="59"/>
     </row>
     <row r="4" spans="1:24" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -2174,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -2232,7 +2038,7 @@
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -2242,30 +2048,36 @@
       <c r="I5" s="17"/>
       <c r="J5" s="3"/>
       <c r="K5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>114</v>
+      <c r="N5" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="T5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="W5" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="54" t="s">
-        <v>13</v>
+      <c r="U5" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2276,37 +2088,43 @@
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="66"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="54"/>
+      <c r="H6" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="L6" s="65"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="48"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="T6" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="49"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="55"/>
+      <c r="U6" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="72"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -2316,31 +2134,33 @@
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="3"/>
       <c r="K7" s="19"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="49"/>
+      <c r="N7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="66"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="50"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="85"/>
+      <c r="W7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2350,33 +2170,35 @@
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="66"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="51"/>
+      <c r="H8" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="19"/>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="50"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q8" s="16"/>
       <c r="R8" s="2"/>
       <c r="T8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="U8" s="83" t="s">
+        <v>12</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
@@ -2388,29 +2210,33 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="50"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="49"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="66"/>
       <c r="T9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="U9" s="83" t="s">
+        <v>12</v>
+      </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
@@ -2422,27 +2248,29 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="45"/>
+      <c r="H10" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="53"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="70"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="W10" s="2"/>
@@ -2454,16 +2282,16 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="49"/>
+      <c r="E11" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="66"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="3"/>
       <c r="K11" s="19"/>
       <c r="L11" s="2"/>
@@ -2471,8 +2299,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="50"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="67"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="W11" s="2"/>
@@ -2483,13 +2311,13 @@
       <c r="B12" s="2"/>
       <c r="C12" s="13"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="50"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="51"/>
+      <c r="H12" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="68"/>
       <c r="J12" s="3"/>
       <c r="K12" s="19"/>
       <c r="L12" s="2"/>
@@ -2510,12 +2338,12 @@
       <c r="C13" s="13"/>
       <c r="D13" s="3"/>
       <c r="E13" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="3"/>
       <c r="K13" s="19"/>
       <c r="L13" s="2"/>
@@ -2532,7 +2360,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="13"/>
@@ -2540,10 +2368,12 @@
       <c r="E14" s="19"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="49"/>
+      <c r="H14" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="28"/>
       <c r="L14" s="27"/>
@@ -2566,8 +2396,8 @@
       <c r="E15" s="19"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="3"/>
       <c r="K15" s="19"/>
       <c r="L15" s="2"/>
@@ -2690,11 +2520,11 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -2722,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="19"/>
@@ -2752,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="19"/>
@@ -2776,7 +2606,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="13"/>
@@ -2930,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="19"/>
@@ -2982,7 +2812,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -3010,7 +2840,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
@@ -3019,55 +2849,55 @@
       <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="13"/>
-      <c r="E33" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
+      <c r="E33" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -3085,29 +2915,17 @@
       <c r="A37" s="19"/>
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
-      <c r="E37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="E37" s="9"/>
+      <c r="H37" s="32"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="13"/>
-      <c r="E38" s="31">
-        <v>44081</v>
-      </c>
-      <c r="H38" s="34">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="E38" s="31"/>
+      <c r="H38" s="34"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
@@ -3124,15 +2942,6 @@
       <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="13"/>
-      <c r="E41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
@@ -3143,189 +2952,189 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
@@ -3404,7 +3213,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="25"/>
@@ -3431,37 +3240,39 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="E2:X2"/>
     <mergeCell ref="Q9:Q11"/>
@@ -3504,7 +3315,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" sqref="B5" xr:uid="{1036C418-DF9F-4A40-960D-9C6B7EB3DD23}">
       <formula1>STATUS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I31 U8:U31 L5:L31 B78:B83 F13:F31 B6:B18 B85:B88 R12:R31 U5:U6 I5:I14 F5:F6 F8 F10:F11 R5:R9 B20:B26 B29:B35 B37:B41 B43:B76 O5 O7 O9:O31 X5 X7:X31" xr:uid="{E664E06B-8503-44A1-B76E-CF37DFD39EC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I31 R5:R9 X7:X31 B78:B83 F13:F31 B6:B18 B85:B88 R12:R31 U5:U6 L11:L31 F5:F6 F8 F10:F11 I12:I14 B20:B26 B29:B35 B37:B41 B43:B76 O5 O7 O9:O31 X5 L5 L7:L9 I10 I8 I5:I6 U8:U31" xr:uid="{E664E06B-8503-44A1-B76E-CF37DFD39EC4}">
       <formula1>STATUS</formula1>
     </dataValidation>
   </dataValidations>
@@ -3521,300 +3332,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65EE1BE-D41B-45B5-B8DB-77E9FD83F2F7}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f>A1&amp;","&amp;A2&amp;","&amp;A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16&amp;","&amp;A17&amp;","&amp;A18</f>
-        <v xml:space="preserve">arg_data ,bra_data ,can_data ,chn_data ,deu_data ,fra_data ,grb_data ,idn_data ,ind_data ,ita_data ,jpn_data ,kor_data ,mex_data ,rus_data ,sau_data ,tur_data ,usa_data ,zaf_data </v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C63B2A-8747-4C41-8589-033B19BC456D}">
-  <dimension ref="C1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9" style="36"/>
-    <col min="5" max="5" width="66.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDC07EF-5764-49B8-9AC6-1C0DA4B8BAA0}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3825,283 +3342,283 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>205</v>
+      <c r="A1" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="37">
         <v>-38.416097000000001</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="37">
         <v>-63.616672000000001</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>134</v>
+      <c r="D2" s="37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="37">
         <v>-25.274398000000001</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="37">
         <v>133.775136</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>129</v>
+      <c r="D3" s="37" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="A4" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="37">
         <v>-14.235004</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="37">
         <v>-51.925280000000001</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>125</v>
+      <c r="D4" s="37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="39">
+      <c r="A5" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="37">
         <v>56.130366000000002</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="37">
         <v>-106.346771</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>127</v>
+      <c r="D5" s="37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="39">
+      <c r="A6" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="37">
         <v>35.861660000000001</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <v>104.195397</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="37">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="C7" s="37">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="37">
+        <v>46.227637999999999</v>
+      </c>
+      <c r="C8" s="37">
+        <v>2.213749</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="37">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-3.4359730000000002</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="37">
+        <v>-0.78927499999999995</v>
+      </c>
+      <c r="C10" s="37">
+        <v>113.92132700000001</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="37">
+        <v>20.593684</v>
+      </c>
+      <c r="C11" s="37">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="37">
+        <v>41.871940000000002</v>
+      </c>
+      <c r="C12" s="37">
+        <v>12.56738</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="37">
+        <v>36.204824000000002</v>
+      </c>
+      <c r="C13" s="37">
+        <v>138.25292400000001</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="37">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="C14" s="37">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="37">
+        <v>23.634501</v>
+      </c>
+      <c r="C15" s="37">
+        <v>-102.552784</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="39">
-        <v>51.165691000000002</v>
-      </c>
-      <c r="C7" s="39">
-        <v>10.451525999999999</v>
-      </c>
-      <c r="D7" s="39" t="s">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="37">
+        <v>61.524009999999997</v>
+      </c>
+      <c r="C16" s="37">
+        <v>105.31875599999999</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="37">
+        <v>23.885942</v>
+      </c>
+      <c r="C17" s="37">
+        <v>45.079161999999997</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="39">
-        <v>46.227637999999999</v>
-      </c>
-      <c r="C8" s="39">
-        <v>2.213749</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="39">
-        <v>55.378050999999999</v>
-      </c>
-      <c r="C9" s="39">
-        <v>-3.4359730000000002</v>
-      </c>
-      <c r="D9" s="39" t="s">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="37">
+        <v>38.963745000000003</v>
+      </c>
+      <c r="C18" s="37">
+        <v>35.243321999999999</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="39">
-        <v>-0.78927499999999995</v>
-      </c>
-      <c r="C10" s="39">
-        <v>113.92132700000001</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="39">
-        <v>20.593684</v>
-      </c>
-      <c r="C11" s="39">
-        <v>78.962879999999998</v>
-      </c>
-      <c r="D11" s="39" t="s">
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="37">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="C19" s="37">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="37">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="C20" s="37">
+        <v>22.937505999999999</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="39">
-        <v>41.871940000000002</v>
-      </c>
-      <c r="C12" s="39">
-        <v>12.56738</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="39">
-        <v>36.204824000000002</v>
-      </c>
-      <c r="C13" s="39">
-        <v>138.25292400000001</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="39">
-        <v>35.907756999999997</v>
-      </c>
-      <c r="C14" s="39">
-        <v>127.76692199999999</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="39">
-        <v>23.634501</v>
-      </c>
-      <c r="C15" s="39">
-        <v>-102.552784</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="39">
-        <v>61.524009999999997</v>
-      </c>
-      <c r="C16" s="39">
-        <v>105.31875599999999</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="39">
-        <v>23.885942</v>
-      </c>
-      <c r="C17" s="39">
-        <v>45.079161999999997</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="39">
-        <v>38.963745000000003</v>
-      </c>
-      <c r="C18" s="39">
-        <v>35.243321999999999</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="39">
-        <v>37.090240000000001</v>
-      </c>
-      <c r="C19" s="39">
-        <v>-95.712890999999999</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="39">
-        <v>-30.559481999999999</v>
-      </c>
-      <c r="C20" s="39">
-        <v>22.937505999999999</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4111,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E512953-2DD3-4B1F-B2EB-F75924513F32}">
   <dimension ref="A3:B7"/>
   <sheetViews>
